--- a/实施方案.xlsx
+++ b/实施方案.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>1、数据库复制one_game_log表结构至one_game_log_offline存储个人模式下的记录</t>
   </si>
@@ -116,9 +116,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -134,6 +131,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,72 +439,77 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="10.5" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>41657</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8">
+        <v>41658</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>

--- a/实施方案.xlsx
+++ b/实施方案.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>1、数据库复制one_game_log表结构至one_game_log_offline存储个人模式下的记录</t>
   </si>
@@ -59,6 +59,51 @@
   </si>
   <si>
     <t>1.1数据库修改对应存储过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益/注册统计增加渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、表结构增加渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、统计SQL增加渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遇到问题：收益如果分渠道又希望即使没有收益也要统计入内的话，必须写死渠道，每增加一个渠道对于统计就要进行对应增加，现在则需要文著兄提供现有所有渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册部分
+完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、定时器服务端更新数据接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1、更新数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、准备补游戏开服到140119的数据脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、补截止140120的差异数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -134,6 +185,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -448,9 +511,10 @@
     <col min="2" max="2" width="46" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -463,9 +527,12 @@
       <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="E1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -478,8 +545,8 @@
         <v>41657</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -490,28 +557,77 @@
         <v>41658</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8">
+        <v>41658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8">
+        <v>41658</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/实施方案.xlsx
+++ b/实施方案.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>1、数据库复制one_game_log表结构至one_game_log_offline存储个人模式下的记录</t>
   </si>
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>one_game_log分离竞技/个人模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -91,19 +87,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4、定时器服务端更新数据接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1、更新数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、准备补游戏开服到140119的数据脚本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5、补截止140120的差异数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、准备补游戏历史收益/注册的数据脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、更新数据库,定时器服务端更新数据接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除了one_game_log表中个人模式的记录，全表备份bak_one_game_log_140119_23:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技模式字段保留，只删除modelType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one_game_log分离竞技/个人模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -192,11 +200,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,140 +513,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="46" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8">
+        <v>41657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>41658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8">
+        <v>41658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8">
+        <v>41658</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8">
+        <v>41658</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8">
+        <v>41658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8">
+        <v>41658</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8">
-        <v>41657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8">
-        <v>41658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="8">
-        <v>41658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="13" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8">
-        <v>41658</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
